--- a/Benchmarks-results/Zeus/Całka.xlsx
+++ b/Benchmarks-results/Zeus/Całka.xlsx
@@ -18,22 +18,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
-    <t>1x GPU     | range 0-66536   |  dx = 0.0001</t>
-  </si>
-  <si>
     <t>GWS</t>
   </si>
   <si>
     <t>t [s]</t>
   </si>
   <si>
-    <t>2x GPU     | range 0-66536   |  dx = 0.0001</t>
+    <t>4x GPU     | range 0-66536   |  dx = 0.000001</t>
   </si>
   <si>
-    <t>4x GPU     | range 0-66536   |  dx = 0.0001</t>
+    <t>8x GPU     | range 0-66536   |  dx = 0.000001</t>
   </si>
   <si>
-    <t>8x GPU     | range 0-66536   |  dx = 0.0001</t>
+    <t>2x GPU     | range 0-66536   |  dx = 0.000001</t>
+  </si>
+  <si>
+    <t>1x GPU     | range 0-66536   |  dx = 0.000001</t>
   </si>
 </sst>
 </file>
@@ -82,6 +82,547 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czasy wykonania zadania</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> dla poszczególnych ilości kart graficznych</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1x GPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$5:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43.188779253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.883687592000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9046814599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2760077339999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2386649300000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3008560610000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4577656050000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9905965210000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.267465638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.82601614</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.546357893</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>208.91658552199999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2x GPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$5:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$5:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21.992799785999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.32316614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0041380120000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3808320319999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9930713390000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0617875899999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2151971850000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7498855569999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0889367730000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.772137014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.340527277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207.42987084200001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4x GPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$5:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$5:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11.544237706000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.21314308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5439919990000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2078961819999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4925166249999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.593409901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7418643540000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2745675630000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7162830900000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.316110469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.828253916999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206.59491675199999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8x GPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$5:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$L$5:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.642182612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1756986100000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5397305430000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1978797239999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6973965630000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5744129790000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7569314380000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2781560340000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7335168249999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.358188686</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.807484385999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206.57329443500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="54906880"/>
+        <c:axId val="54908800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54906880"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="512"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Global Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54908800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54908800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="220"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas [S]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54906880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2276474</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +913,7 @@
   <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C5" sqref="C5:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -390,215 +931,404 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="C2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="1">
-        <v>536870912</v>
+        <v>1024</v>
+      </c>
+      <c r="C5">
+        <v>43.188779253</v>
       </c>
       <c r="E5" s="1">
-        <v>536870912</v>
+        <v>1024</v>
+      </c>
+      <c r="F5">
+        <v>21.992799785999999</v>
       </c>
       <c r="H5" s="1">
-        <v>536870912</v>
+        <v>1024</v>
+      </c>
+      <c r="I5">
+        <v>11.544237706000001</v>
       </c>
       <c r="K5" s="1">
-        <v>536870912</v>
+        <v>1024</v>
+      </c>
+      <c r="L5">
+        <v>6.642182612</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="1">
-        <v>268435456</v>
+        <f>B5*2</f>
+        <v>2048</v>
+      </c>
+      <c r="C6">
+        <v>21.883687592000001</v>
       </c>
       <c r="E6" s="1">
-        <v>268435456</v>
+        <f>E5*2</f>
+        <v>2048</v>
+      </c>
+      <c r="F6">
+        <v>11.32316614</v>
       </c>
       <c r="H6" s="1">
-        <v>268435456</v>
+        <f>H5*2</f>
+        <v>2048</v>
+      </c>
+      <c r="I6">
+        <v>6.21314308</v>
       </c>
       <c r="K6" s="1">
-        <v>268435456</v>
+        <f>K5*2</f>
+        <v>2048</v>
+      </c>
+      <c r="L6">
+        <v>6.1756986100000004</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1">
-        <v>134217728</v>
+        <f t="shared" ref="B7:B16" si="0">B6*2</f>
+        <v>4096</v>
+      </c>
+      <c r="C7">
+        <v>5.9046814599999999</v>
       </c>
       <c r="E7" s="1">
-        <v>134217728</v>
+        <f t="shared" ref="E7:E16" si="1">E6*2</f>
+        <v>4096</v>
+      </c>
+      <c r="F7">
+        <v>6.0041380120000003</v>
       </c>
       <c r="H7" s="1">
-        <v>134217728</v>
+        <f t="shared" ref="H7:H16" si="2">H6*2</f>
+        <v>4096</v>
+      </c>
+      <c r="I7">
+        <v>3.5439919990000002</v>
       </c>
       <c r="K7" s="1">
-        <v>134217728</v>
+        <f t="shared" ref="K7:K16" si="3">K6*2</f>
+        <v>4096</v>
+      </c>
+      <c r="L7">
+        <v>3.5397305430000001</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="1">
-        <v>67108864</v>
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C8">
+        <v>3.2760077339999998</v>
       </c>
       <c r="E8" s="1">
-        <v>67108864</v>
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+      <c r="F8">
+        <v>3.3808320319999998</v>
       </c>
       <c r="H8" s="1">
-        <v>67108864</v>
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+      <c r="I8">
+        <v>2.2078961819999998</v>
       </c>
       <c r="K8" s="1">
-        <v>67108864</v>
+        <f t="shared" si="3"/>
+        <v>8192</v>
+      </c>
+      <c r="L8">
+        <v>2.1978797239999999</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="1">
-        <v>33554432</v>
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C9">
+        <v>3.2386649300000001</v>
       </c>
       <c r="E9" s="1">
-        <v>33554432</v>
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="F9">
+        <v>1.9930713390000001</v>
       </c>
       <c r="H9" s="1">
-        <v>33554432</v>
+        <f t="shared" si="2"/>
+        <v>16384</v>
+      </c>
+      <c r="I9">
+        <v>1.4925166249999999</v>
       </c>
       <c r="K9" s="1">
-        <v>33554432</v>
+        <f t="shared" si="3"/>
+        <v>16384</v>
+      </c>
+      <c r="L9">
+        <v>1.6973965630000001</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="1">
-        <v>16777216</v>
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="C10">
+        <v>3.3008560610000002</v>
       </c>
       <c r="E10" s="1">
-        <v>16777216</v>
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+      <c r="F10">
+        <v>2.0617875899999998</v>
       </c>
       <c r="H10" s="1">
-        <v>16777216</v>
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+      <c r="I10">
+        <v>1.593409901</v>
       </c>
       <c r="K10" s="1">
-        <v>16777216</v>
+        <f t="shared" si="3"/>
+        <v>32768</v>
+      </c>
+      <c r="L10">
+        <v>1.5744129790000001</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="1">
-        <v>8388608</v>
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="C11">
+        <v>3.4577656050000001</v>
       </c>
       <c r="E11" s="1">
-        <v>8388608</v>
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="F11">
+        <v>2.2151971850000001</v>
       </c>
       <c r="H11" s="1">
-        <v>8388608</v>
+        <f t="shared" si="2"/>
+        <v>65536</v>
+      </c>
+      <c r="I11">
+        <v>1.7418643540000001</v>
       </c>
       <c r="K11" s="1">
-        <v>8388608</v>
+        <f t="shared" si="3"/>
+        <v>65536</v>
+      </c>
+      <c r="L11">
+        <v>1.7569314380000001</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="1">
-        <v>4194304</v>
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="C12">
+        <v>3.9905965210000001</v>
       </c>
       <c r="E12" s="1">
-        <v>4194304</v>
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+      <c r="F12">
+        <v>2.7498855569999998</v>
       </c>
       <c r="H12" s="1">
-        <v>4194304</v>
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+      <c r="I12">
+        <v>2.2745675630000002</v>
       </c>
       <c r="K12" s="1">
-        <v>4194304</v>
+        <f t="shared" si="3"/>
+        <v>131072</v>
+      </c>
+      <c r="L12">
+        <v>2.2781560340000002</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="1">
-        <v>2097152</v>
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="C13">
+        <v>6.267465638</v>
       </c>
       <c r="E13" s="1">
-        <v>2097152</v>
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="F13">
+        <v>5.0889367730000004</v>
       </c>
       <c r="H13" s="1">
-        <v>2097152</v>
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="I13">
+        <v>4.7162830900000001</v>
       </c>
       <c r="K13" s="1">
-        <v>2097152</v>
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
+      <c r="L13">
+        <v>4.7335168249999997</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="1">
-        <v>1048576</v>
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="C14">
+        <v>15.82601614</v>
       </c>
       <c r="E14" s="1">
-        <v>1048576</v>
+        <f t="shared" si="1"/>
+        <v>524288</v>
+      </c>
+      <c r="F14">
+        <v>14.772137014</v>
       </c>
       <c r="H14" s="1">
-        <v>1048576</v>
+        <f t="shared" si="2"/>
+        <v>524288</v>
+      </c>
+      <c r="I14">
+        <v>14.316110469</v>
       </c>
       <c r="K14" s="1">
-        <v>1048576</v>
+        <f t="shared" si="3"/>
+        <v>524288</v>
+      </c>
+      <c r="L14">
+        <v>14.358188686</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="1">
-        <v>524288</v>
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="C15">
+        <v>54.546357893</v>
       </c>
       <c r="E15" s="1">
-        <v>524288</v>
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="F15">
+        <v>53.340527277</v>
       </c>
       <c r="H15" s="1">
-        <v>524288</v>
+        <f t="shared" si="2"/>
+        <v>1048576</v>
+      </c>
+      <c r="I15">
+        <v>52.828253916999998</v>
       </c>
       <c r="K15" s="1">
-        <v>524288</v>
+        <f t="shared" si="3"/>
+        <v>1048576</v>
+      </c>
+      <c r="L15">
+        <v>52.807484385999999</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="1">
-        <v>262144</v>
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+      <c r="C16">
+        <v>208.91658552199999</v>
       </c>
       <c r="E16" s="1">
-        <v>262144</v>
+        <f t="shared" si="1"/>
+        <v>2097152</v>
+      </c>
+      <c r="F16">
+        <v>207.42987084200001</v>
       </c>
       <c r="H16" s="1">
-        <v>262144</v>
+        <f t="shared" si="2"/>
+        <v>2097152</v>
+      </c>
+      <c r="I16">
+        <v>206.59491675199999</v>
       </c>
       <c r="K16" s="1">
-        <v>262144</v>
+        <f t="shared" si="3"/>
+        <v>2097152</v>
+      </c>
+      <c r="L16">
+        <v>206.57329443500001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Benchmarks-results/Zeus/Całka.xlsx
+++ b/Benchmarks-results/Zeus/Całka.xlsx
@@ -123,10 +123,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$5:$B$16</c:f>
+              <c:f>Arkusz1!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1024</c:v>
                 </c:pt>
@@ -156,22 +156,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2097152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$5:$C$16</c:f>
+              <c:f>Arkusz1!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43.188779253</c:v>
                 </c:pt>
@@ -201,12 +195,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15.82601614</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.546357893</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>208.91658552199999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -221,10 +209,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$5:$B$16</c:f>
+              <c:f>Arkusz1!$B$5:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1024</c:v>
                 </c:pt>
@@ -254,22 +242,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>524288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2097152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$F$5:$F$16</c:f>
+              <c:f>Arkusz1!$F$5:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>21.992799785999999</c:v>
                 </c:pt>
@@ -300,11 +282,8 @@
                 <c:pt idx="9">
                   <c:v>14.772137014</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>53.340527277</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>207.42987084200001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,10 +298,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$5:$B$16</c:f>
+              <c:f>Arkusz1!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1024</c:v>
                 </c:pt>
@@ -353,10 +332,10 @@
                 <c:pt idx="9">
                   <c:v>524288</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>1048576</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>2097152</c:v>
                 </c:pt>
               </c:numCache>
@@ -364,10 +343,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$I$5:$I$16</c:f>
+              <c:f>Arkusz1!$I$5:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>11.544237706000001</c:v>
                 </c:pt>
@@ -397,12 +376,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>14.316110469</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52.828253916999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>206.59491675199999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,10 +390,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$5:$B$16</c:f>
+              <c:f>Arkusz1!$B$5:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1024</c:v>
                 </c:pt>
@@ -451,21 +424,18 @@
                 <c:pt idx="9">
                   <c:v>524288</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2097152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$L$5:$L$16</c:f>
+              <c:f>Arkusz1!$L$5:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6.642182612</c:v>
                 </c:pt>
@@ -495,23 +465,17 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>14.358188686</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52.807484385999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>206.57329443500001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54906880"/>
-        <c:axId val="54908800"/>
+        <c:axId val="58184448"/>
+        <c:axId val="58190080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54906880"/>
+        <c:axId val="58184448"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -538,15 +502,15 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54908800"/>
+        <c:crossAx val="58190080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54908800"/>
+        <c:axId val="58190080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="220"/>
+          <c:max val="45"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -571,7 +535,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54906880"/>
+        <c:crossAx val="58184448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -584,7 +548,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -594,16 +558,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2276474</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1847849</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2266950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -910,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C16"/>
+      <selection activeCell="B23" sqref="B23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1265,63 +1229,63 @@
         <v>14.358188686</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
+    <row r="23" spans="2:12">
+      <c r="B23" s="1">
+        <f>B14*2</f>
         <v>1048576</v>
       </c>
-      <c r="C15">
+      <c r="C23">
         <v>54.546357893</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
+      <c r="E23" s="1">
+        <f>E14*2</f>
         <v>1048576</v>
       </c>
-      <c r="F15">
+      <c r="F23">
         <v>53.340527277</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
+      <c r="H23" s="1">
+        <f>H14*2</f>
         <v>1048576</v>
       </c>
-      <c r="I15">
+      <c r="I23">
         <v>52.828253916999998</v>
       </c>
-      <c r="K15" s="1">
-        <f t="shared" si="3"/>
+      <c r="K23" s="1">
+        <f>K14*2</f>
         <v>1048576</v>
       </c>
-      <c r="L15">
+      <c r="L23">
         <v>52.807484385999999</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
+    <row r="24" spans="2:12">
+      <c r="B24" s="1">
+        <f>B23*2</f>
         <v>2097152</v>
       </c>
-      <c r="C16">
+      <c r="C24">
         <v>208.91658552199999</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
+      <c r="E24" s="1">
+        <f>E23*2</f>
         <v>2097152</v>
       </c>
-      <c r="F16">
+      <c r="F24">
         <v>207.42987084200001</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" si="2"/>
+      <c r="H24" s="1">
+        <f>H23*2</f>
         <v>2097152</v>
       </c>
-      <c r="I16">
+      <c r="I24">
         <v>206.59491675199999</v>
       </c>
-      <c r="K16" s="1">
-        <f t="shared" si="3"/>
+      <c r="K24" s="1">
+        <f>K23*2</f>
         <v>2097152</v>
       </c>
-      <c r="L16">
+      <c r="L24">
         <v>206.57329443500001</v>
       </c>
     </row>
